--- a/data/trans_orig/P1433-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01989227-84F1-46AF-8541-5CFC8550EA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{659833C2-C8DB-48A2-9B2D-6328BB629742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5FF4CF8C-F743-45D2-A190-58536B207AE1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{819CA636-05B1-4D91-93FB-52095F8176A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="144">
   <si>
     <t>Población con diagnóstico de esterilidad en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -124,298 +124,325 @@
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,75%</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -854,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03226380-ED5C-4545-BB08-AE3F3703F509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1B4E61-169D-4465-AFCB-63D7F8E54178}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1665,7 +1692,7 @@
         <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>56</v>
@@ -1719,7 +1746,7 @@
         <v>61</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M18" s="7">
         <v>1083</v>
@@ -1728,10 +1755,10 @@
         <v>1225968</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>34</v>
@@ -1790,7 +1817,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1808,7 +1835,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1859,7 +1886,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -1868,13 +1895,13 @@
         <v>1045</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1883,13 +1910,13 @@
         <v>1045</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,7 +1934,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>20</v>
@@ -1919,10 +1946,10 @@
         <v>446755</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>18</v>
@@ -1934,10 +1961,10 @@
         <v>876184</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>18</v>
@@ -1996,7 +2023,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2014,22 +2041,22 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2065,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2074,13 +2101,13 @@
         <v>4241</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2089,10 +2116,10 @@
         <v>4241</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>82</v>
@@ -2131,7 +2158,7 @@
         <v>85</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="M26" s="7">
         <v>1193</v>
@@ -2140,13 +2167,13 @@
         <v>1297263</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,7 +2247,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2235,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2250,7 +2277,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,10 +2295,10 @@
         <v>38</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -2283,10 +2310,10 @@
         <v>24</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -2298,10 +2325,10 @@
         <v>15</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,10 +2346,10 @@
         <v>46</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>3284</v>
@@ -2331,13 +2358,13 @@
         <v>3542720</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>6488</v>
@@ -2349,10 +2376,10 @@
         <v>22</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2435,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2430,7 +2457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB44A0C-1B64-4445-8662-2B0D090EF117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175B443D-2B86-4F6F-A561-E9508297A81A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2447,7 +2474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2560,7 +2587,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2611,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2659,7 +2686,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -2689,7 +2716,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -2781,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2796,7 +2823,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2847,7 +2874,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,7 +2907,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>20</v>
@@ -2895,7 +2922,7 @@
         <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>20</v>
@@ -3023,7 +3050,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3053,7 +3080,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,7 +3098,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -3086,7 +3113,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>20</v>
@@ -3101,7 +3128,7 @@
         <v>34</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -3178,7 +3205,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3193,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3229,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3244,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3277,7 +3304,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>20</v>
@@ -3292,7 +3319,7 @@
         <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>18</v>
@@ -3366,7 +3393,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3384,7 +3411,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3399,7 +3426,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3435,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3450,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3483,7 +3510,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>20</v>
@@ -3498,7 +3525,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>20</v>
@@ -3572,7 +3599,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3590,7 +3617,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3641,7 +3668,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3650,13 +3677,13 @@
         <v>1020</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3665,13 +3692,13 @@
         <v>2822</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,7 +3716,7 @@
         <v>47</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>18</v>
@@ -3701,10 +3728,10 @@
         <v>776911</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>18</v>
@@ -3716,13 +3743,13 @@
         <v>1366437</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3823,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3811,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3826,7 +3853,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3871,7 @@
         <v>29</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>15</v>
@@ -3856,7 +3883,7 @@
         <v>2040</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
@@ -3871,10 +3898,10 @@
         <v>4914</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>26</v>
@@ -3898,7 +3925,7 @@
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>3336</v>
@@ -3907,7 +3934,7 @@
         <v>3542502</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>50</v>
@@ -3922,13 +3949,13 @@
         <v>6933978</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +4011,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4006,7 +4033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFEA8FD-5148-4082-8D1D-2F4A714ACB1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467608A8-26B4-4BA8-9A9D-C10DF1FCB960}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4023,7 +4050,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4133,7 +4160,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>20</v>
@@ -4148,7 +4175,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>20</v>
@@ -4163,7 +4190,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -4187,7 +4214,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4202,7 +4229,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4217,7 +4244,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4265,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4253,7 +4280,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4268,7 +4295,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,7 +4366,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -4369,7 +4396,7 @@
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -4393,7 +4420,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4423,7 +4450,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,7 +4471,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4474,7 +4501,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,7 +4587,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>20</v>
@@ -4614,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4665,7 +4692,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4751,7 +4778,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>20</v>
@@ -4766,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>20</v>
@@ -4775,13 +4802,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>20</v>
@@ -4820,7 +4847,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4835,7 +4862,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4898,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4886,7 +4913,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,7 +4955,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>20</v>
@@ -4942,7 +4969,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4957,7 +4984,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>20</v>
@@ -4972,7 +4999,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>20</v>
@@ -4987,7 +5014,7 @@
         <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>20</v>
@@ -5026,7 +5053,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5041,7 +5068,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,7 +5104,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5092,7 +5119,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,7 +5175,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5157,13 +5184,13 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>20</v>
@@ -5178,7 +5205,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>20</v>
@@ -5193,7 +5220,7 @@
         <v>18</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>20</v>
@@ -5217,7 +5244,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5232,7 +5259,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5247,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,7 +5295,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5283,7 +5310,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5298,7 +5325,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,7 +5337,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
@@ -5369,7 +5396,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>20</v>
@@ -5384,7 +5411,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>20</v>
@@ -5393,13 +5420,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>20</v>
@@ -5423,7 +5450,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5438,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5453,7 +5480,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,7 +5501,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5489,7 +5516,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5504,7 +5531,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,7 +5573,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>20</v>
@@ -5560,7 +5587,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1433-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{659833C2-C8DB-48A2-9B2D-6328BB629742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D2F570F-EF29-4824-B5FD-045580CC0867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{819CA636-05B1-4D91-93FB-52095F8176A4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52C60287-CAB8-45A9-BBC3-AD1BDE0061B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="141">
   <si>
     <t>Población con diagnóstico de esterilidad en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -124,73 +124,79 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,81%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -208,13 +214,13 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>1,26%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,69%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -223,13 +229,16 @@
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,56%</t>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>99,31%</t>
+    <t>99,36%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -241,168 +250,162 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,3%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
     <t>99,94%</t>
   </si>
   <si>
@@ -424,18 +427,12 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
     <t>1,11%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>99,37%</t>
   </si>
   <si>
@@ -452,12 +449,6 @@
   </si>
   <si>
     <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -881,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1B4E61-169D-4465-AFCB-63D7F8E54178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF49EB7-4B42-41AD-A597-4EEB529FEDFB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1498,13 +1489,13 @@
         <v>5783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,13 +1510,13 @@
         <v>678188</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>664</v>
@@ -1534,10 +1525,10 @@
         <v>707465</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -1549,13 +1540,13 @@
         <v>1385654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,7 +1602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1629,7 +1620,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1644,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1659,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,7 +1671,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1689,13 +1680,13 @@
         <v>2912</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1704,13 +1695,13 @@
         <v>2912</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1719,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>20</v>
@@ -1740,13 +1731,13 @@
         <v>611352</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M18" s="7">
         <v>1083</v>
@@ -1755,10 +1746,10 @@
         <v>1225968</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>34</v>
@@ -1817,7 +1808,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1835,7 +1826,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1850,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1865,7 +1856,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -1895,13 +1886,13 @@
         <v>1045</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1910,13 +1901,13 @@
         <v>1045</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,7 +1925,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>20</v>
@@ -1946,10 +1937,10 @@
         <v>446755</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>18</v>
@@ -1961,10 +1952,10 @@
         <v>876184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>18</v>
@@ -2023,7 +2014,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2041,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2056,7 +2047,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2092,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2101,13 +2092,13 @@
         <v>4241</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2116,13 +2107,13 @@
         <v>4241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,7 +2131,7 @@
         <v>18</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>20</v>
@@ -2152,13 +2143,13 @@
         <v>737625</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="M26" s="7">
         <v>1193</v>
@@ -2167,13 +2158,13 @@
         <v>1297263</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,7 +2238,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2262,7 +2253,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2277,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,10 +2286,10 @@
         <v>38</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -2310,10 +2301,10 @@
         <v>24</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -2325,10 +2316,10 @@
         <v>15</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2334,13 @@
         <v>3422010</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>3284</v>
@@ -2358,13 +2349,13 @@
         <v>3542720</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="M30" s="7">
         <v>6488</v>
@@ -2376,10 +2367,10 @@
         <v>22</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2426,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175B443D-2B86-4F6F-A561-E9508297A81A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EB85CF-2613-42A3-9359-60585C029116}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2474,7 +2465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2587,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2602,7 +2593,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2617,7 +2608,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,7 +2629,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2653,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2668,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2677,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -2701,7 +2692,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
@@ -2716,7 +2707,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -2808,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2823,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,7 +2850,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2874,7 +2865,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,7 +2898,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>20</v>
@@ -2922,7 +2913,7 @@
         <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>20</v>
@@ -3050,7 +3041,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3080,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,7 +3089,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -3113,7 +3104,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>20</v>
@@ -3128,7 +3119,7 @@
         <v>34</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -3187,7 +3178,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3205,7 +3196,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3220,7 +3211,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3256,7 +3247,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3271,7 +3262,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3286,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,7 +3295,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>20</v>
@@ -3319,7 +3310,7 @@
         <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>18</v>
@@ -3334,7 +3325,7 @@
         <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>18</v>
@@ -3393,7 +3384,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3411,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3426,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3462,7 +3453,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3477,7 +3468,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3510,7 +3501,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>20</v>
@@ -3525,7 +3516,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>20</v>
@@ -3599,7 +3590,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3617,7 +3608,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3668,7 +3659,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3677,13 +3668,13 @@
         <v>1020</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3692,13 +3683,13 @@
         <v>2822</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,7 +3704,7 @@
         <v>589526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>118</v>
@@ -3728,10 +3719,10 @@
         <v>776911</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>18</v>
@@ -3743,13 +3734,13 @@
         <v>1366437</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3814,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3838,7 +3829,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3853,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,10 +3862,10 @@
         <v>29</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3883,13 +3874,13 @@
         <v>2040</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3898,13 +3889,13 @@
         <v>4914</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,10 +3913,10 @@
         <v>34</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>3336</v>
@@ -3934,10 +3925,10 @@
         <v>3542502</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>18</v>
@@ -3949,13 +3940,13 @@
         <v>6933978</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,7 +4002,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4033,7 +4024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467608A8-26B4-4BA8-9A9D-C10DF1FCB960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A85A27-1ACB-44F4-A8C0-1C0CE8814C15}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4050,7 +4041,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4160,7 +4151,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>20</v>
@@ -4175,7 +4166,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>20</v>
@@ -4190,7 +4181,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -4244,7 +4235,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,7 +4286,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,7 +4357,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -4381,7 +4372,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>20</v>
@@ -4396,7 +4387,7 @@
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -4420,37 +4411,37 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,37 +4462,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,7 +4563,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>20</v>
@@ -4587,7 +4578,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>20</v>
@@ -4602,7 +4593,7 @@
         <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>20</v>
@@ -4626,7 +4617,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4641,7 +4632,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4677,7 +4668,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4692,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4763,7 +4754,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4778,7 +4769,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>20</v>
@@ -4793,7 +4784,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>20</v>
@@ -4808,7 +4799,7 @@
         <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>20</v>
@@ -4847,7 +4838,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4862,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,7 +4889,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4913,7 +4904,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,7 +4960,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4984,7 +4975,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>20</v>
@@ -4999,7 +4990,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>20</v>
@@ -5014,7 +5005,7 @@
         <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>20</v>
@@ -5053,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5068,7 +5059,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,7 +5095,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5119,7 +5110,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,7 +5166,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5190,7 +5181,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>20</v>
@@ -5205,7 +5196,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>20</v>
@@ -5220,7 +5211,7 @@
         <v>18</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>20</v>
@@ -5244,7 +5235,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5259,7 +5250,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5274,7 +5265,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5310,7 +5301,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5325,7 +5316,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,7 +5387,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>20</v>
@@ -5411,7 +5402,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>20</v>
@@ -5426,7 +5417,7 @@
         <v>18</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>20</v>
@@ -5450,7 +5441,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5465,7 +5456,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5480,7 +5471,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,7 +5492,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5516,7 +5507,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5531,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,7 +5578,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1433-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CECF1FEB-E63F-4091-A79C-74B0CB2552E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A82F3C7-6DCC-4224-9FBA-8E5F3159F72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E36A2955-6D7F-449C-BAB0-23679AF1E9EF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9F17A48F-A944-438A-A3BB-E52FD5C56D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="134">
   <si>
     <t>Población con diagnóstico de esterilidad en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -105,7 +105,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,16%</t>
@@ -138,7 +138,7 @@
     <t>99,58%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,54%</t>
@@ -183,7 +183,7 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -222,7 +222,7 @@
     <t>99,37%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -255,81 +255,108 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
     <t>0,96%</t>
   </si>
   <si>
@@ -354,43 +381,61 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
   </si>
   <si>
     <t>99,94%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -805,8 +850,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C38260-BA65-45B3-BC96-5319692D51F7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C80E45-0816-47C6-90AB-48F639DA90EE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1713,34 +1758,34 @@
         <v>73</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>4241</v>
+        <v>902</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>4241</v>
+        <v>902</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,49 +1794,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D20" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <v>343</v>
+      </c>
+      <c r="I20" s="7">
+        <v>353094</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>689</v>
-      </c>
-      <c r="I20" s="7">
-        <v>737625</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>1193</v>
+        <v>625</v>
       </c>
       <c r="N20" s="7">
-        <v>1297263</v>
+        <v>662880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,10 +1845,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1815,10 +1860,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741866</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1830,10 +1875,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301504</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1847,55 +1892,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>4769</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3338</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3338</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>10306</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M22" s="7">
-        <v>15</v>
-      </c>
-      <c r="N22" s="7">
-        <v>15075</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,49 +1949,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3204</v>
+        <v>222</v>
       </c>
       <c r="D23" s="7">
-        <v>3422010</v>
+        <v>249851</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="7">
+        <v>346</v>
+      </c>
+      <c r="I23" s="7">
+        <v>384532</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>568</v>
+      </c>
+      <c r="N23" s="7">
+        <v>634383</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="7">
-        <v>3284</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3542720</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6488</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6964730</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,63 +2000,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387870</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637721</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4769</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="7">
+        <v>10</v>
+      </c>
+      <c r="I25" s="7">
+        <v>10306</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" s="7">
+        <v>15</v>
+      </c>
+      <c r="N25" s="7">
+        <v>15075</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3204</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3422010</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3284</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3542720</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6488</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6964730</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3294</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553026</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6503</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6979805</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>93</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2024,8 +2225,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BD5A56-B75E-4DFB-9B3D-48461918262E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319244C4-EC6D-4751-83AF-B79B396800EF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2041,7 +2242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2324,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2339,7 +2540,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2387,7 +2588,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2464,7 +2665,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2479,7 +2680,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2494,7 +2695,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,7 +2713,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2527,7 +2728,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2542,7 +2743,7 @@
         <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2619,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2634,7 +2835,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2667,7 +2868,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2682,7 +2883,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2774,7 +2975,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2789,7 +2990,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2822,7 +3023,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -2837,7 +3038,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -2917,19 +3118,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1802</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2938,28 +3139,28 @@
         <v>1020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>2822</v>
+        <v>1020</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,49 +3169,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="D20" s="7">
-        <v>589526</v>
+        <v>334330</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>654</v>
+        <v>353</v>
       </c>
       <c r="I20" s="7">
-        <v>776911</v>
+        <v>376742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>1279</v>
+        <v>678</v>
       </c>
       <c r="N20" s="7">
-        <v>1366437</v>
+        <v>711072</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,10 +3220,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3034,10 +3235,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3049,10 +3250,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3066,55 +3267,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>2874</v>
+        <v>1802</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1802</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2040</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="7">
-        <v>5</v>
-      </c>
-      <c r="N22" s="7">
-        <v>4914</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,49 +3324,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3228</v>
+        <v>300</v>
       </c>
       <c r="D23" s="7">
-        <v>3391476</v>
+        <v>255196</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
-        <v>3336</v>
+        <v>301</v>
       </c>
       <c r="I23" s="7">
-        <v>3542502</v>
+        <v>400169</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="7">
+        <v>601</v>
+      </c>
+      <c r="N23" s="7">
+        <v>655365</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6564</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6933978</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,63 +3375,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2874</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2040</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4914</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3228</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3391476</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3336</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3542502</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6564</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6933978</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>93</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
